--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 20.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">  But never was a fight managed so hardily, and in such a surprising manner as that which followed between Friday and the bear, which gave us all, though at first we were surprised and afraid for him, the greatest diversion imaginable.</t>
   </si>
@@ -38,24 +38,12 @@
     <t>We were all a little surprised when we saw him; but when Friday saw him, it was easy to see joy and courage in the fellow’s countenance.</t>
   </si>
   <si>
-    <t>O!</t>
-  </si>
-  <si>
-    <t>O!” says Friday, three times, pointing to him; “O master, you give me te leave, me shakee te hand with him; me makee you good laugh.”  I was surprised to see the fellow so well pleased.</t>
-  </si>
-  <si>
     <t>“You fool,” says I, “he will eat you up.”—“Eatee me up!</t>
   </si>
   <si>
-    <t>eatee me up!” says Friday, twice over again; “me eatee him up; me makee you good laugh; you all stay here, me show you good laugh.” So down he sits, and gets off his boots in a moment, and puts on a pair of pumps (as we call the flat shoes they wear, and which he had in his pocket), gives my other servant his horse, and with his gun away he flew, swift like the wind.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The bear was walking softly on, and offered to meddle with nobody, till Friday coming pretty near, calls to him, as if the bear could understand him.</t>
   </si>
   <si>
-    <t>“Hark ye, hark ye,” says Friday, “me speakee with you.” We followed at a distance, for now being down on the Gascony side of the mountains, we were entered a vast forest, where the country was plain and pretty open, though it had many trees in it scattered here and there.</t>
-  </si>
-  <si>
     <t>Friday, who had, as we say, the heels of the bear, came up with him quickly, and took up a great stone, and threw it at him, and hit him just on the head, but did him no more harm than if he had thrown it against a wall; but it answered Friday’s end, for the rogue was so void of fear that he did it purely to make the bear follow him, and show us some laugh as he called it.</t>
   </si>
   <si>
@@ -65,9 +53,6 @@
     <t>is this your making us laugh?</t>
   </si>
   <si>
-    <t>Come away, and take your horse, that we may shoot the creature.” He heard me, and cried out, “No shoot, no shoot; stand still, and you get much laugh:” and as the nimble creature ran two feet for the bear’s one, he turned on a sudden on one side of us, and seeing a great oak tree fit for his purpose, he beckoned to us to follow; and doubling his pace, he got nimbly up the tree, laying his gun down upon the ground, at about five or six yards from the bottom of the tree.</t>
-  </si>
-  <si>
     <t>The bear soon came to the tree, and we followed at a distance: the first thing he did he stopped at the gun, smelt at it, but let it lie, and up he scrambles into the tree, climbing like a cat, though so monstrous heavy.</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>“So we kill bear in my country,” says Friday.</t>
   </si>
   <si>
-    <t>“So you kill them?” says I; “why, you have no guns.”—“No,” says he, “no gun, but shoot great much long arrow.” This was a good diversion to us; but we were still in a wild place, and our guide very much hurt, and what to do we hardly knew; the howling of wolves ran much in my head; and, indeed, except the noise I once heard on the shore of Africa, of which I have said something already, I never heard anything that filled me with so much horror.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> These things, and the approach of night, called us off, or else, as Friday would have had us, we should certainly have taken the skin of this monstrous creature off, which was worth saving; but we had near three leagues to go, and our guide hastened us; so we left him, and went forward on our journey.</t>
   </si>
   <si>
@@ -291,6 +273,36 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was surprised to see the fellow so well pleased.</t>
+  </si>
+  <si>
+    <t>So down he sits, and gets off his boots in a moment, and puts on a pair of pumps (as we call the flat shoes they wear, and which he had in his pocket), gives my other servant his horse, and with his gun away he flew, swift like the wind.</t>
+  </si>
+  <si>
+    <t>We followed at a distance, for now being down on the Gascony side of the mountains, we were entered a vast forest, where the country was plain and pretty open, though it had many trees in it scattered here and there.</t>
+  </si>
+  <si>
+    <t>He heard me, and cried out, “No shoot, no shoot; stand still, and you get much laugh:” and as the nimble creature ran two feet for the bear’s one, he turned on a sudden on one side of us, and seeing a great oak tree fit for his purpose, he beckoned to us to follow; and doubling his pace, he got nimbly up the tree, laying his gun down upon the ground, at about five or six yards from the bottom of the tree.</t>
+  </si>
+  <si>
+    <t>This was a good diversion to us; but we were still in a wild place, and our guide very much hurt, and what to do we hardly knew; the howling of wolves ran much in my head; and, indeed, except the noise I once heard on the shore of Africa, of which I have said something already, I never heard anything that filled me with so much horror.</t>
+  </si>
+  <si>
+    <t>O!O!” says Friday, three times, pointing to him; “O master, you give me te leave, me shakee te hand with him; me makee you good laugh.”</t>
+  </si>
+  <si>
+    <t>eatee me up!” says Friday, twice over again; “me eatee him up; me makee you good laugh; you all stay here, me show you good laugh.”</t>
+  </si>
+  <si>
+    <t>“Hark ye, hark ye,” says Friday, “me speakee with you.”</t>
+  </si>
+  <si>
+    <t>Come away, and take your horse, that we may shoot the creature.”</t>
+  </si>
+  <si>
+    <t>“So you kill them?” says I; “why, you have no guns.”—“No,” says he, “no gun, but shoot great much long arrow.”</t>
   </si>
 </sst>
 </file>
@@ -608,20 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A88"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,7 +809,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,7 +817,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -829,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +873,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +897,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +905,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +913,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +921,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +937,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +945,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +953,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +961,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +969,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +985,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +993,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +1001,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +1009,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1017,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1025,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1041,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1049,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1057,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1073,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1081,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1089,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1097,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1105,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1113,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1129,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1137,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1145,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1153,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1161,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1169,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1177,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1185,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1193,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1201,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1209,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1217,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1225,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1233,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1241,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1249,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1265,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1273,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1281,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1289,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1297,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1305,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1313,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1321,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1329,39 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
